--- a/src/exports/export_001/output/rads_2014_2018_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2014_2018_total_menor_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,55 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>campus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>periodo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>situacao</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>aula</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ensino</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>capacitacao</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pesquisa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>extensao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>administracao</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_nao_homologado</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>siape</t>
         </is>
@@ -501,16 +506,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2015/2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -533,7 +540,10 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>2037546</t>
         </is>
@@ -545,16 +555,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CMPCRIS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -575,9 +587,12 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>78</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2183250</t>
         </is>
@@ -589,39 +604,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>74</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>49</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>130</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2971577</t>
         </is>
@@ -633,16 +653,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -660,12 +682,15 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>100</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>1346471</t>
         </is>
@@ -677,16 +702,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -709,7 +736,10 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>1384377</t>
         </is>
@@ -721,23 +751,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>83</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
@@ -748,12 +780,15 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>24</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>108</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1784656</t>
         </is>
@@ -765,16 +800,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -797,7 +834,10 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>1864610</t>
         </is>
@@ -809,16 +849,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -841,7 +883,10 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>1812087</t>
         </is>
@@ -853,16 +898,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2018/1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -885,7 +932,10 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>1668015</t>
         </is>
@@ -897,23 +947,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -927,9 +979,12 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>63</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1557146</t>
         </is>
@@ -941,16 +996,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -973,7 +1030,10 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>1612752</t>
         </is>
@@ -985,16 +1045,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1017,7 +1079,10 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>1959890</t>
         </is>
@@ -1029,16 +1094,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1047,11 +1114,11 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>100</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1059,9 +1126,12 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>100</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2037546</t>
         </is>
@@ -1073,16 +1143,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1100,12 +1172,15 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>83</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>83</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>1327553</t>
         </is>
@@ -1117,16 +1192,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1144,12 +1221,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>100</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1346471</t>
         </is>
@@ -1161,16 +1241,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1193,7 +1275,10 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>2144132</t>
         </is>
@@ -1205,16 +1290,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1237,7 +1324,10 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>2190031</t>
         </is>
@@ -1249,16 +1339,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1373,10 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>2275293</t>
         </is>
@@ -1293,16 +1388,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>REITORIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1325,7 +1422,10 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>1510437</t>
         </is>
@@ -1337,16 +1437,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>REITORIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2018/2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1369,7 +1471,10 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>2395571</t>
         </is>
